--- a/biology/Zoologie/Arachnanthus_lilith/Arachnanthus_lilith.xlsx
+++ b/biology/Zoologie/Arachnanthus_lilith/Arachnanthus_lilith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arachnanthus lilith est une espèce de cnidaires de la famille des Arachnactidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arachnanthus lilith est une espèce de cnidaires de la famille des Arachnactidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Arachnanthus lilith a été décrite en 2018 par les zoologistes Sérgio N. Stampar (d) et Suraia O. El Didi (d)[1] dans une publication coécrite avec Gustav Paulay (d) et Michael L. Berumen (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Arachnanthus lilith a été décrite en 2018 par les zoologistes Sérgio N. Stampar (d) et Suraia O. El Didi (d) dans une publication coécrite avec Gustav Paulay (d) et Michael L. Berumen (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arachnanthus lilith est présente en mer Rouge, depuis le golfe d'Aqaba jusqu'aux îles Farasan[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arachnanthus lilith est présente en mer Rouge, depuis le golfe d'Aqaba jusqu'aux îles Farasan.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'holotype d’Arachnanthus lilith mesure 35 mm de longueur pour un diamètre variant de 3 à 4 mm.
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, lilith, lui a été donné en référence à Lilith, le démon féminin de la tradition juive[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, lilith, lui a été donné en référence à Lilith, le démon féminin de la tradition juive.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Sérgio N. Stampar, Suraia O. El Didi, Gustav Paulay et Michael L. Berumen, « A new species of Arachnanthus from the Red Sea (Cnidaria, Ceriantharia) », ZooKeys, Sofia, Pensoft Publishers (d), vol. 748, no 748,‎ 4 avril 2018, p. 1-10 (ISSN 1313-2989 et 1313-2970, OCLC 248547717, PMID 29674909, PMCID 5904562, DOI 10.3897/ZOOKEYS.748.22914, lire en ligne)</t>
         </is>
